--- a/Data/simulation_method_parameter_values.xlsx
+++ b/Data/simulation_method_parameter_values.xlsx
@@ -23,6 +23,27 @@
     <t xml:space="preserve">parameter</t>
   </si>
   <si>
+    <t xml:space="preserve">SCISSORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silhouette Cutoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seurat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GiniClust3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CellSIUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Gene log2FC</t>
+  </si>
+  <si>
     <t xml:space="preserve">K-means</t>
   </si>
   <si>
@@ -42,27 +63,6 @@
   </si>
   <si>
     <t xml:space="preserve">Leiden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GiniClust3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CellSIUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Gene log2FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seurat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCISSORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silhouette Cutoff</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -424,7 +424,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -435,62 +435,62 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13">
@@ -534,7 +534,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14">
@@ -545,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -556,7 +556,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +567,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="17">
@@ -578,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="18">
@@ -586,10 +586,10 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19">
@@ -597,10 +597,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20">
@@ -608,10 +608,10 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="21">
@@ -619,10 +619,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22">
@@ -630,10 +630,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
@@ -641,10 +641,10 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24">
@@ -652,10 +652,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="n">
-        <v>9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="25">
@@ -663,10 +663,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26">
@@ -674,10 +674,10 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="27">
@@ -685,10 +685,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -696,10 +696,10 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>13</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="29">
@@ -707,10 +707,10 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" t="n">
-        <v>14</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="30">
@@ -718,395 +718,395 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C30" t="n">
-        <v>15</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>16</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="n">
-        <v>17</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="n">
-        <v>18</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
         <v>9</v>
       </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
       <c r="C34" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
         <v>9</v>
       </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
       <c r="C35" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
         <v>9</v>
       </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
       <c r="C36" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="n">
         <v>9</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="n">
         <v>10</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C45" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C46" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="n">
         <v>10</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C57" t="n">
-        <v>1.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C58" t="n">
-        <v>1.2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C59" t="n">
-        <v>1.3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C60" t="n">
-        <v>0.25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="n">
         <v>12</v>
-      </c>
-      <c r="B62" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="n">
         <v>13</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C64" t="n">
-        <v>1.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -1114,10 +1114,10 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
@@ -1125,10 +1125,10 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68">
@@ -1136,153 +1136,153 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C76" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C77" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C78" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C79" t="n">
-        <v>0.15</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C80" t="n">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C81" t="n">
-        <v>0.35</v>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
